--- a/biology/Zoologie/Cephea/Cephea.xlsx
+++ b/biology/Zoologie/Cephea/Cephea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephea est un genre de méduses de la famille des Cepheidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de grosses méduses tropicales, inoffensives. Elles sont pourvues d'une grande ombrelle charnue (à laquelle elles doivent leur nom anglais de « crown jellies »), et de bras oraux épais et complexes. L'ombrelle est caractérisée par une importante dépression centrale, d'où émerge un dôme marqué par des protubérances. Ce genre se distingue par la présence de plus de 3 canaux inter-rhopalaires par octant, et des bras buccaux portant de longs filaments[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de grosses méduses tropicales, inoffensives. Elles sont pourvues d'une grande ombrelle charnue (à laquelle elles doivent leur nom anglais de « crown jellies »), et de bras oraux épais et complexes. L'ombrelle est caractérisée par une importante dépression centrale, d'où émerge un dôme marqué par des protubérances. Ce genre se distingue par la présence de plus de 3 canaux inter-rhopalaires par octant, et des bras buccaux portant de longs filaments.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (6 janvier 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (6 janvier 2015) :
 Cephea cephea (Forskål, 1775)
 Cephea coerulea Vanhöffen, 1902
 Cephea octostyla (Forskål, 1775) (nomen dubium)
